--- a/data/trans_camb/P43-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P43-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,46</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 23,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,19; 37,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 23,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,19; 37,71</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,7%</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 79,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,2; 128,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 79,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,2; 128,36</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,41</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,35; 20,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,17; 24,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 11,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,35; 20,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,17; 24,38</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,55%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 35,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,59; 62,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,53; 73,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 35,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,59; 62,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,53; 73,6</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,35</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 13,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 23,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 21,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 13,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 23,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 21,42</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,74%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 36,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,89; 63,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,83; 57,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 36,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,89; 63,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,83; 57,72</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,04</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 14,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 19,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 19,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 14,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 19,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 19,14</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 38,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 52,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 51,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 38,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 52,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 51,0</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>42,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,76</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>42,01</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 26,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,29; 31,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,18; 49,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 26,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,29; 31,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,18; 49,88</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,4%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,12; 106,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,09; 126,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,65; 207,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,12; 106,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,09; 126,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,65; 207,21</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 18,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 19,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,97; 22,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 18,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 19,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,97; 22,99</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,36%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 52,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 57,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,51; 67,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 52,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 57,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,51; 67,9</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,99</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 12,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 4,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,64; 42,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 12,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 4,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,64; 42,13</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 30,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,41; 10,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,02; 101,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 30,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,41; 10,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,02; 101,9</t>
         </is>
       </c>
     </row>
@@ -2159,32 +2159,32 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 15,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 20,87</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 7,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 15,74</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 20,87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 7,81</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 49,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,77; 67,46</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 24,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 49,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,77; 67,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 24,65</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2375,32 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
     </row>
@@ -2481,32 +2481,32 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43-Provincia-trans_camb.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,46</t>
+          <t>27,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,46</t>
+          <t>27,56</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,79; 24,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 37,71</t>
+          <t>17,45; 36,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,79; 24,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 37,71</t>
+          <t>17,45; 36,06</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>79,23%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,06; 81,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 128,36</t>
+          <t>45,42; 122,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,06; 81,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 128,36</t>
+          <t>45,42; 122,13</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>18,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>18,35</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 24,38</t>
+          <t>12,11; 24,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 24,38</t>
+          <t>12,11; 24,4</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 73,6</t>
+          <t>31,54; 73,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 73,6</t>
+          <t>31,54; 73,59</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,05</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 21,42</t>
+          <t>5,22; 21,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 21,42</t>
+          <t>5,22; 21,17</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>32,01%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 57,72</t>
+          <t>11,95; 57,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 57,72</t>
+          <t>11,95; 57,33</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>5,98</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 14,51</t>
+          <t>-0,37; 14,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 19,14</t>
+          <t>-15,82; 21,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 14,51</t>
+          <t>-0,37; 14,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 19,14</t>
+          <t>-15,82; 21,8</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,57; 38,78</t>
+          <t>-0,74; 38,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 51,0</t>
+          <t>-35,89; 53,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,57; 38,78</t>
+          <t>-0,74; 38,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 51,0</t>
+          <t>-35,89; 53,72</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>42,01</t>
+          <t>42,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>42,01</t>
+          <t>42,92</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,18; 49,88</t>
+          <t>33,73; 50,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>32,18; 49,88</t>
+          <t>33,73; 50,77</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>140,4%</t>
+          <t>143,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>140,4%</t>
+          <t>143,45%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,65; 207,21</t>
+          <t>93,01; 211,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>89,65; 207,21</t>
+          <t>93,01; 211,69</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>14,98</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,97; 22,99</t>
+          <t>6,91; 22,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,97; 22,99</t>
+          <t>6,91; 22,95</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,15%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,51; 67,9</t>
+          <t>16,47; 67,69</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>16,51; 67,9</t>
+          <t>16,47; 67,69</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24,99</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>24,99</t>
+          <t>29,96</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,64; 42,13</t>
+          <t>15,91; 48,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,64; 42,13</t>
+          <t>15,91; 48,2</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>68,62%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,02; 101,9</t>
+          <t>36,0; 124,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,02; 101,9</t>
+          <t>36,0; 124,92</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,81</t>
+          <t>-1,12; 8,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,81</t>
+          <t>-1,12; 8,28</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 24,65</t>
+          <t>-3,04; 26,26</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 24,65</t>
+          <t>-3,04; 26,26</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>18,02</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,62</t>
+          <t>13,1; 28,7</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,62</t>
+          <t>13,1; 28,7</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>47,53%</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>35,11; 60,18</t>
+          <t>33,96; 75,73</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>35,11; 60,18</t>
+          <t>33,96; 75,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 24,62</t>
+          <t>7,41; 25,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 23,69</t>
+          <t>6,85; 23,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 36,06</t>
+          <t>17,55; 35,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 24,62</t>
+          <t>7,41; 25,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 23,69</t>
+          <t>6,85; 23,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 36,06</t>
+          <t>17,55; 35,71</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 81,04</t>
+          <t>19,15; 82,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 79,93</t>
+          <t>17,09; 78,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,42; 122,13</t>
+          <t>44,61; 120,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 81,04</t>
+          <t>19,15; 82,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 79,93</t>
+          <t>17,09; 78,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,42; 122,13</t>
+          <t>44,61; 120,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,59</t>
+          <t>-0,9; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 20,54</t>
+          <t>8,43; 20,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 24,4</t>
+          <t>12,4; 24,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,59</t>
+          <t>-0,9; 11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 20,54</t>
+          <t>8,43; 20,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 24,4</t>
+          <t>12,4; 24,34</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 35,18</t>
+          <t>-2,29; 33,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 62,07</t>
+          <t>21,04; 63,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 73,59</t>
+          <t>31,7; 73,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 35,18</t>
+          <t>-2,29; 33,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 62,07</t>
+          <t>21,04; 63,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 73,59</t>
+          <t>31,7; 73,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 13,47</t>
+          <t>-1,87; 13,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 23,19</t>
+          <t>8,7; 23,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 21,17</t>
+          <t>5,57; 20,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 13,47</t>
+          <t>-1,87; 13,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 23,19</t>
+          <t>8,7; 23,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 21,17</t>
+          <t>5,57; 20,27</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 36,36</t>
+          <t>-4,2; 35,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 63,39</t>
+          <t>19,17; 63,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 57,33</t>
+          <t>12,63; 55,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 36,36</t>
+          <t>-4,2; 35,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 63,39</t>
+          <t>19,17; 63,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 57,33</t>
+          <t>12,63; 55,16</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 14,36</t>
+          <t>0,01; 14,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 19,48</t>
+          <t>4,28; 18,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 21,8</t>
+          <t>-16,77; 21,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 14,36</t>
+          <t>0,01; 14,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 19,48</t>
+          <t>4,28; 18,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 21,8</t>
+          <t>-16,77; 21,38</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 38,53</t>
+          <t>0,06; 37,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,22; 52,35</t>
+          <t>9,3; 48,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 53,72</t>
+          <t>-37,72; 53,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 38,53</t>
+          <t>0,06; 37,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,22; 52,35</t>
+          <t>9,3; 48,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 53,72</t>
+          <t>-37,72; 53,77</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 26,69</t>
+          <t>7,81; 26,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,29; 31,53</t>
+          <t>13,06; 31,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,73; 50,77</t>
+          <t>32,62; 50,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 26,69</t>
+          <t>7,81; 26,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,29; 31,53</t>
+          <t>13,06; 31,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>33,73; 50,77</t>
+          <t>32,62; 50,57</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,12; 106,61</t>
+          <t>23,97; 107,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>39,09; 126,56</t>
+          <t>35,85; 126,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,01; 211,69</t>
+          <t>91,58; 201,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,12; 106,61</t>
+          <t>23,97; 107,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>39,09; 126,56</t>
+          <t>35,85; 126,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>93,01; 211,69</t>
+          <t>91,58; 201,26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 18,1</t>
+          <t>1,38; 18,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 19,66</t>
+          <t>3,74; 20,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,95</t>
+          <t>6,69; 23,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 18,1</t>
+          <t>1,38; 18,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 19,66</t>
+          <t>3,74; 20,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,95</t>
+          <t>6,69; 23,0</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,86; 52,57</t>
+          <t>3,77; 55,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,95; 57,68</t>
+          <t>8,6; 62,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,47; 67,69</t>
+          <t>15,47; 67,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,86; 52,57</t>
+          <t>3,77; 55,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,95; 57,68</t>
+          <t>8,6; 62,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>16,47; 67,69</t>
+          <t>15,47; 67,29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,86</t>
+          <t>2,18; 13,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,33</t>
+          <t>-6,98; 3,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,91; 48,2</t>
+          <t>15,97; 46,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,86</t>
+          <t>2,18; 13,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,33</t>
+          <t>-6,98; 3,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,91; 48,2</t>
+          <t>15,97; 46,24</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,47; 30,91</t>
+          <t>5,04; 33,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 10,79</t>
+          <t>-14,86; 8,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,0; 124,92</t>
+          <t>35,55; 114,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,47; 30,91</t>
+          <t>5,04; 33,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 10,79</t>
+          <t>-14,86; 8,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,0; 124,92</t>
+          <t>35,55; 114,38</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,74</t>
+          <t>5,19; 15,19</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,87</t>
+          <t>11,16; 21,03</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,28</t>
+          <t>-1,18; 8,64</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,74</t>
+          <t>5,19; 15,19</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,87</t>
+          <t>11,16; 21,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,28</t>
+          <t>-1,18; 8,64</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,21; 49,62</t>
+          <t>14,45; 48,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>30,77; 67,46</t>
+          <t>30,29; 67,67</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 26,26</t>
+          <t>-3,77; 26,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,21; 49,62</t>
+          <t>14,45; 48,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>30,77; 67,46</t>
+          <t>30,29; 67,67</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 26,26</t>
+          <t>-3,77; 26,79</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
     </row>
